--- a/datasets/old_data/exams/chosen_exam_questios_english_hebrew.xlsx
+++ b/datasets/old_data/exams/chosen_exam_questios_english_hebrew.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guy Blumental\NLP\nlp-tau\datasets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guy Blumental\NLP\nlp-tau\datasets\old_data\exams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{775B00A9-19BF-40D1-88C6-32CC86C3D9F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D93D0341-2FD6-4382-97CF-1E59E518A723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="19380" windowHeight="21690" xr2:uid="{9AF1A329-B131-44DA-9EEC-75022146EE01}"/>
+    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="21690" xr2:uid="{9AF1A329-B131-44DA-9EEC-75022146EE01}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="185">
   <si>
-    <t>זוג ערכים במערך נקראים עוקבים אם הם שונים ולאחר מיון הם נמצאים במקומות סמוכים במערך. בהינתן מערך של מספרים טבעיים בגודל n, הציעו אלגוריתם (בעל סיבוכיות worst case הטובה ביותר) הבודק האם יש זוג ערכים עוקבים שסכום המופעים של שניהם ביחד הוא לפחות  (כלומר מספר הפעמים שמופיע ערך מסוים ועוד מספר הפעמים שמופיע הערך העוקב לו יהיה לפחות ).</t>
-  </si>
-  <si>
     <t xml:space="preserve">ניתן לפתור ב-O(n)   Worst case בכמה דרכים בהתבססות על order statistics. למשל, פתרון שמתבסס על העקרונות הבאים )  בלא פרוט פרטים טכניים): 
 מציאת חציון – O(n) (סמנו ב-M)
 מציאת האיבר הקטן ביותר הגדול מהחציון (H) (אם יש) – O(n)
@@ -400,11 +397,6 @@
     <t>אפשר להריץ  select על n/4 ב-x ו-3n/4 ב-y, ולפי זה לזהות קטעים מרכזיים. זמן ריצה לינארי במספר הקטעים.</t>
   </si>
   <si>
-    <t>A pair of values in an array are called consecutive if they are different and, after sorting, they appear in adjacent positions in the array.  
-Given an array of natural numbers of size \( n \), propose an algorithm (with the best worst-case complexity) that checks whether there exists a pair of consecutive values whose total occurrences together are at least \( k \)  
-(that is, the number of times a certain value appears plus the number of times its consecutive value appears is at least \( k \)).</t>
-  </si>
-  <si>
     <t xml:space="preserve">It is possible to solve in \( O(n) \) worst case in several ways based on order statistics.  
 For example, a solution based on the following principles (without detailing technical specifics):  
 - Finding the median – \( O(n) \) (denoted as \( M \))  
@@ -717,10 +709,6 @@
 The operation \texttt{FindMin()} will return the minimum element from the global heap of all sets.</t>
   </si>
   <si>
-    <t>Given an array of $h$ integers between $0$ and $2^n$.
-It is given that each number in the array is a multiple of the upper bound value of $2^N$, divided by $N^3$. Propose an algorithm to sort the array.</t>
-  </si>
-  <si>
     <t>Divide each number by (the upper bound value of $2^N$, divided by $N^3$). Now, the elements of the array are in the range $[0, n^3]$ and can be sorted using $O(n)$ \texttt{radix sort}.</t>
   </si>
   <si>
@@ -948,6 +936,18 @@
   </si>
   <si>
     <t>It is not possible. Suppose it were possible, then we could sort \( n \) numbers in less than \( O(n \log n) \) time by recursive merging followed by an in-order walk. The recurrence relation described is \( T(n) = 2T(n/2) + O(n) \), and its solution is \( O(n) \). Therefore, the total sorting time would be \( O(n) \).</t>
+  </si>
+  <si>
+    <t>Given an array of $n$ integers between $0$ and $2^n$.
+It is given that each number in the array is a multiple of the upper bound value of $2^N$, divided by $N^3$. Propose an algorithm to sort the array.</t>
+  </si>
+  <si>
+    <t>A pair of values in an array are called consecutive if they are different and, after sorting, they appear in adjacent positions in the array.  
+Given an array of natural numbers of size \( n \), propose an algorithm (with the best worst-case complexity) that checks whether there exists a pair of consecutive values whose total occurrences together are at least \( \left\lceil \frac{n}{2} \right\rceil \) 
+(that is, the number of times a certain value appears plus the number of times its consecutive value appears is at least \( \left\lceil \frac{n}{2} \right\rceil \).</t>
+  </si>
+  <si>
+    <t>זוג ערכים במערך נקראים עוקבים אם הם שונים ולאחר מיון הם נמצאים במקומות סמוכים במערך. בהינתן מערך של מספרים טבעיים בגודל n, הציעו אלגוריתם (בעל סיבוכיות worst case הטובה ביותר) הבודק האם יש זוג ערכים עוקבים שסכום המופעים של שניהם ביחד הוא לפחות ערך עליון של n חלקי 2 (כלומר מספר הפעמים שמופיע ערך מסוים ועוד מספר הפעמים שמופיע הערך העוקב לו יהיה לפחות ערך עליון של n חלקי 2 ).</t>
   </si>
 </sst>
 </file>
@@ -1334,672 +1334,674 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F92CA944-6086-4AB5-B8AE-A7AB2C54EF14}">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A6" workbookViewId="0"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" s="3" t="s">
-        <v>73</v>
+        <v>183</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="C2" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="C3" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="C4" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="C5" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="C6" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="C7" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="C8" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="C9" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="C10" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="C11" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="C12" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="C14" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="C16" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="C17" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="C18" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="C20" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="C21" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="C22" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="C23" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="C24" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="C25" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="C26" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="391.5" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="C27" s="3" t="s">
-        <v>125</v>
+        <v>182</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="C28" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="406" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="C29" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="377" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="C31" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="C32" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="C33" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="C34" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="C35" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="C36" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="C37" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C38" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D38" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C39" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D39" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
       <c r="C40" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D40" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
       <c r="C41" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C42" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D42" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="290" x14ac:dyDescent="0.35">
       <c r="C43" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B44" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D44" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B45" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D45" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C46" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D47" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C48" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B49" t="s">
+        <v>175</v>
+      </c>
+      <c r="C49" t="s">
         <v>178</v>
       </c>
-      <c r="C49" t="s">
-        <v>181</v>
-      </c>
       <c r="D49" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B50" t="s">
+        <v>177</v>
+      </c>
+      <c r="C50" t="s">
         <v>180</v>
       </c>
-      <c r="C50" t="s">
-        <v>183</v>
-      </c>
       <c r="D50" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
